--- a/softball_dataset.xlsx
+++ b/softball_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robert Pretschner\Desktop\igParser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725DDD34-6907-449B-8CA6-CAE7F551A800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4658F08F-9B14-4BBC-B080-DD8B91F217E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$299</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -3408,10 +3408,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3718,12 +3721,12 @@
   <dimension ref="A1:R299"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R1"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="255.6640625" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
     <col min="4" max="4" width="20.109375" customWidth="1"/>
@@ -3733,6 +3736,9 @@
     <col min="8" max="8" width="22.21875" customWidth="1"/>
     <col min="9" max="9" width="16.109375" customWidth="1"/>
     <col min="10" max="10" width="19.109375" customWidth="1"/>
+    <col min="15" max="15" width="17.21875" customWidth="1"/>
+    <col min="16" max="16" width="16.109375" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -3791,8 +3797,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" t="s">
@@ -3831,13 +3837,13 @@
       <c r="N2">
         <v>207</v>
       </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="b">
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
       <c r="R2" t="s">
@@ -3887,13 +3893,13 @@
       <c r="N3">
         <v>207</v>
       </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="b">
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3" t="s">
@@ -3943,13 +3949,13 @@
       <c r="N4">
         <v>207</v>
       </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="b">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4" t="s">
@@ -3996,13 +4002,13 @@
       <c r="N5">
         <v>207</v>
       </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="b">
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>1</v>
       </c>
       <c r="R5" t="s">
@@ -4049,13 +4055,13 @@
       <c r="N6">
         <v>207</v>
       </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="b">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6" t="s">
@@ -4105,13 +4111,13 @@
       <c r="N7">
         <v>207</v>
       </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="b">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
       <c r="R7" t="s">
@@ -4161,13 +4167,13 @@
       <c r="N8">
         <v>207</v>
       </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="b">
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
       <c r="R8" t="s">
@@ -4217,13 +4223,13 @@
       <c r="N9">
         <v>207</v>
       </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="b">
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>1</v>
       </c>
       <c r="R9" t="s">
@@ -4270,13 +4276,13 @@
       <c r="N10">
         <v>207</v>
       </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="b">
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10" t="s">
@@ -4326,13 +4332,13 @@
       <c r="N11">
         <v>207</v>
       </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="b">
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>1</v>
       </c>
       <c r="R11" t="s">
@@ -4379,13 +4385,13 @@
       <c r="N12">
         <v>207</v>
       </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="b">
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>1</v>
       </c>
       <c r="R12" t="s">
@@ -4435,13 +4441,13 @@
       <c r="N13">
         <v>207</v>
       </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="b">
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>1</v>
       </c>
       <c r="R13" t="s">
@@ -4488,13 +4494,13 @@
       <c r="N14">
         <v>207</v>
       </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="b">
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>1</v>
       </c>
       <c r="R14" t="s">
@@ -4544,13 +4550,13 @@
       <c r="N15">
         <v>207</v>
       </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="b">
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>1</v>
       </c>
       <c r="R15" t="s">
@@ -4600,13 +4606,13 @@
       <c r="N16">
         <v>207</v>
       </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="b">
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>1</v>
       </c>
       <c r="R16" t="s">
@@ -4656,13 +4662,13 @@
       <c r="N17">
         <v>207</v>
       </c>
-      <c r="O17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="b">
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
@@ -4709,13 +4715,13 @@
       <c r="N18">
         <v>207</v>
       </c>
-      <c r="O18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="b">
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18" t="s">
@@ -4765,13 +4771,13 @@
       <c r="N19">
         <v>207</v>
       </c>
-      <c r="O19" t="b">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="b">
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>1</v>
       </c>
       <c r="R19" t="s">
@@ -4821,13 +4827,13 @@
       <c r="N20">
         <v>207</v>
       </c>
-      <c r="O20" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="b">
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>1</v>
       </c>
       <c r="R20" t="s">
@@ -4877,13 +4883,13 @@
       <c r="N21">
         <v>207</v>
       </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="b">
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>1</v>
       </c>
       <c r="R21" t="s">
@@ -4930,13 +4936,13 @@
       <c r="N22">
         <v>207</v>
       </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="b">
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>1</v>
       </c>
       <c r="R22" t="s">
@@ -4986,13 +4992,13 @@
       <c r="N23">
         <v>207</v>
       </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="b">
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23" t="s">
@@ -5042,13 +5048,13 @@
       <c r="N24">
         <v>207</v>
       </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="b">
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>1</v>
       </c>
       <c r="R24" t="s">
@@ -5095,13 +5101,13 @@
       <c r="N25">
         <v>207</v>
       </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="b">
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>1</v>
       </c>
       <c r="R25" t="s">
@@ -5151,13 +5157,13 @@
       <c r="N26">
         <v>207</v>
       </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="b">
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>1</v>
       </c>
       <c r="R26" t="s">
@@ -5204,13 +5210,13 @@
       <c r="N27">
         <v>207</v>
       </c>
-      <c r="O27" t="b">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="b">
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
       <c r="R27" t="s">
@@ -5260,13 +5266,13 @@
       <c r="N28">
         <v>207</v>
       </c>
-      <c r="O28" t="b">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="b">
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>1</v>
       </c>
       <c r="R28" t="s">
@@ -5316,13 +5322,13 @@
       <c r="N29">
         <v>207</v>
       </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="b">
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>1</v>
       </c>
       <c r="R29" t="s">
@@ -5372,13 +5378,13 @@
       <c r="N30">
         <v>207</v>
       </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="b">
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>1</v>
       </c>
       <c r="R30" t="s">
@@ -5428,13 +5434,13 @@
       <c r="N31">
         <v>207</v>
       </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="b">
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
         <v>1</v>
       </c>
       <c r="R31" t="s">
@@ -5481,13 +5487,13 @@
       <c r="N32">
         <v>78</v>
       </c>
-      <c r="O32" t="b">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="b">
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>1</v>
       </c>
       <c r="R32" t="s">
@@ -5534,13 +5540,13 @@
       <c r="N33">
         <v>78</v>
       </c>
-      <c r="O33" t="b">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="b">
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>1</v>
       </c>
       <c r="R33" t="s">
@@ -5587,13 +5593,13 @@
       <c r="N34">
         <v>78</v>
       </c>
-      <c r="O34" t="b">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="b">
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34" t="s">
@@ -5640,13 +5646,13 @@
       <c r="N35">
         <v>78</v>
       </c>
-      <c r="O35" t="b">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="b">
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>1</v>
       </c>
       <c r="R35" t="s">
@@ -5693,13 +5699,13 @@
       <c r="N36">
         <v>78</v>
       </c>
-      <c r="O36" t="b">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="b">
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>1</v>
       </c>
       <c r="R36" t="s">
@@ -5746,13 +5752,13 @@
       <c r="N37">
         <v>78</v>
       </c>
-      <c r="O37" t="b">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="b">
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
         <v>1</v>
       </c>
       <c r="R37" t="s">
@@ -5799,13 +5805,13 @@
       <c r="N38">
         <v>78</v>
       </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="b">
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
         <v>1</v>
       </c>
       <c r="R38" t="s">
@@ -5852,13 +5858,13 @@
       <c r="N39">
         <v>78</v>
       </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="b">
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
       <c r="R39" t="s">
@@ -5908,13 +5914,13 @@
       <c r="N40">
         <v>78</v>
       </c>
-      <c r="O40" t="b">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="b">
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
@@ -5961,13 +5967,13 @@
       <c r="N41">
         <v>78</v>
       </c>
-      <c r="O41" t="b">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="b">
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
@@ -6017,13 +6023,13 @@
       <c r="N42">
         <v>78</v>
       </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="b">
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>1</v>
       </c>
       <c r="R42" t="s">
@@ -6070,13 +6076,13 @@
       <c r="N43">
         <v>78</v>
       </c>
-      <c r="O43" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="b">
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>1</v>
       </c>
       <c r="R43" t="s">
@@ -6123,13 +6129,13 @@
       <c r="N44">
         <v>78</v>
       </c>
-      <c r="O44" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="b">
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
         <v>1</v>
       </c>
       <c r="R44" t="s">
@@ -6179,13 +6185,13 @@
       <c r="N45">
         <v>78</v>
       </c>
-      <c r="O45" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="b">
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
         <v>1</v>
       </c>
       <c r="R45" t="s">
@@ -6232,13 +6238,13 @@
       <c r="N46">
         <v>78</v>
       </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="b">
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
         <v>1</v>
       </c>
       <c r="R46" t="s">
@@ -6285,13 +6291,13 @@
       <c r="N47">
         <v>78</v>
       </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-      <c r="P47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q47" t="b">
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>1</v>
       </c>
       <c r="R47" t="s">
@@ -6338,13 +6344,13 @@
       <c r="N48">
         <v>78</v>
       </c>
-      <c r="O48" t="b">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="b">
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
         <v>1</v>
       </c>
       <c r="R48" t="s">
@@ -6394,13 +6400,13 @@
       <c r="N49">
         <v>78</v>
       </c>
-      <c r="O49" t="b">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="b">
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
         <v>1</v>
       </c>
       <c r="R49" t="s">
@@ -6450,13 +6456,13 @@
       <c r="N50">
         <v>78</v>
       </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="b">
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>1</v>
       </c>
       <c r="R50" t="s">
@@ -6506,13 +6512,13 @@
       <c r="N51">
         <v>78</v>
       </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51" t="b">
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>1</v>
       </c>
       <c r="R51" t="s">
@@ -6559,13 +6565,13 @@
       <c r="N52">
         <v>78</v>
       </c>
-      <c r="O52" t="b">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="b">
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
         <v>1</v>
       </c>
       <c r="R52" t="s">
@@ -6615,13 +6621,13 @@
       <c r="N53">
         <v>78</v>
       </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-      <c r="P53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="b">
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
         <v>1</v>
       </c>
       <c r="R53" t="s">
@@ -6671,13 +6677,13 @@
       <c r="N54">
         <v>78</v>
       </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="b">
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>1</v>
       </c>
       <c r="R54" t="s">
@@ -6724,13 +6730,13 @@
       <c r="N55">
         <v>78</v>
       </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55" t="b">
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
         <v>1</v>
       </c>
       <c r="R55" t="s">
@@ -6777,13 +6783,13 @@
       <c r="N56">
         <v>78</v>
       </c>
-      <c r="O56" t="b">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="b">
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
         <v>1</v>
       </c>
       <c r="R56" t="s">
@@ -6833,13 +6839,13 @@
       <c r="N57">
         <v>78</v>
       </c>
-      <c r="O57" t="b">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57" t="b">
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
         <v>1</v>
       </c>
       <c r="R57" t="s">
@@ -6886,13 +6892,13 @@
       <c r="N58">
         <v>78</v>
       </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58" t="b">
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
         <v>1</v>
       </c>
       <c r="R58" t="s">
@@ -6939,13 +6945,13 @@
       <c r="N59">
         <v>78</v>
       </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59" t="b">
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
         <v>1</v>
       </c>
       <c r="R59" t="s">
@@ -6992,13 +6998,13 @@
       <c r="N60">
         <v>78</v>
       </c>
-      <c r="O60" t="b">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60" t="b">
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>1</v>
       </c>
       <c r="R60" t="s">
@@ -7045,13 +7051,13 @@
       <c r="N61">
         <v>76</v>
       </c>
-      <c r="O61" t="b">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61" t="b">
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>1</v>
       </c>
       <c r="R61" t="s">
@@ -7098,13 +7104,13 @@
       <c r="N62">
         <v>76</v>
       </c>
-      <c r="O62" t="b">
-        <v>0</v>
-      </c>
-      <c r="P62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q62" t="b">
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
         <v>1</v>
       </c>
       <c r="R62" t="s">
@@ -7154,13 +7160,13 @@
       <c r="N63">
         <v>76</v>
       </c>
-      <c r="O63" t="b">
-        <v>0</v>
-      </c>
-      <c r="P63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q63" t="b">
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>1</v>
       </c>
       <c r="R63" t="s">
@@ -7210,13 +7216,13 @@
       <c r="N64">
         <v>76</v>
       </c>
-      <c r="O64" t="b">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="b">
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>1</v>
       </c>
       <c r="R64" t="s">
@@ -7266,13 +7272,13 @@
       <c r="N65">
         <v>76</v>
       </c>
-      <c r="O65" t="b">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65" t="b">
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>1</v>
       </c>
       <c r="R65" t="s">
@@ -7322,13 +7328,13 @@
       <c r="N66">
         <v>76</v>
       </c>
-      <c r="O66" t="b">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66" t="b">
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
         <v>1</v>
       </c>
       <c r="R66" t="s">
@@ -7375,13 +7381,13 @@
       <c r="N67">
         <v>76</v>
       </c>
-      <c r="O67" t="b">
-        <v>0</v>
-      </c>
-      <c r="P67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q67" t="b">
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
         <v>1</v>
       </c>
       <c r="R67" t="s">
@@ -7428,13 +7434,13 @@
       <c r="N68">
         <v>76</v>
       </c>
-      <c r="O68" t="b">
-        <v>0</v>
-      </c>
-      <c r="P68" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q68" t="b">
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
         <v>1</v>
       </c>
       <c r="R68" t="s">
@@ -7481,13 +7487,13 @@
       <c r="N69">
         <v>76</v>
       </c>
-      <c r="O69" t="b">
-        <v>0</v>
-      </c>
-      <c r="P69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q69" t="b">
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
         <v>1</v>
       </c>
       <c r="R69" t="s">
@@ -7534,13 +7540,13 @@
       <c r="N70">
         <v>76</v>
       </c>
-      <c r="O70" t="b">
-        <v>0</v>
-      </c>
-      <c r="P70" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q70" t="b">
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
         <v>1</v>
       </c>
       <c r="R70" t="s">
@@ -7587,13 +7593,13 @@
       <c r="N71">
         <v>76</v>
       </c>
-      <c r="O71" t="b">
-        <v>0</v>
-      </c>
-      <c r="P71" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q71" t="b">
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
         <v>1</v>
       </c>
       <c r="R71" t="s">
@@ -7640,13 +7646,13 @@
       <c r="N72">
         <v>76</v>
       </c>
-      <c r="O72" t="b">
-        <v>0</v>
-      </c>
-      <c r="P72" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q72" t="b">
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
         <v>1</v>
       </c>
       <c r="R72" t="s">
@@ -7696,13 +7702,13 @@
       <c r="N73">
         <v>76</v>
       </c>
-      <c r="O73" t="b">
-        <v>0</v>
-      </c>
-      <c r="P73" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q73" t="b">
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
         <v>1</v>
       </c>
       <c r="R73" t="s">
@@ -7752,13 +7758,13 @@
       <c r="N74">
         <v>76</v>
       </c>
-      <c r="O74" t="b">
-        <v>0</v>
-      </c>
-      <c r="P74" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q74" t="b">
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
         <v>1</v>
       </c>
       <c r="R74" t="s">
@@ -7808,13 +7814,13 @@
       <c r="N75">
         <v>76</v>
       </c>
-      <c r="O75" t="b">
-        <v>0</v>
-      </c>
-      <c r="P75" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q75" t="b">
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
         <v>1</v>
       </c>
       <c r="R75" t="s">
@@ -7864,13 +7870,13 @@
       <c r="N76">
         <v>76</v>
       </c>
-      <c r="O76" t="b">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76" t="b">
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
         <v>1</v>
       </c>
       <c r="R76" t="s">
@@ -7917,13 +7923,13 @@
       <c r="N77">
         <v>76</v>
       </c>
-      <c r="O77" t="b">
-        <v>0</v>
-      </c>
-      <c r="P77" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q77" t="b">
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
         <v>1</v>
       </c>
       <c r="R77" t="s">
@@ -7970,13 +7976,13 @@
       <c r="N78">
         <v>76</v>
       </c>
-      <c r="O78" t="b">
-        <v>0</v>
-      </c>
-      <c r="P78" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="b">
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
         <v>1</v>
       </c>
       <c r="R78" t="s">
@@ -8026,13 +8032,13 @@
       <c r="N79">
         <v>76</v>
       </c>
-      <c r="O79" t="b">
-        <v>0</v>
-      </c>
-      <c r="P79" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="b">
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
         <v>1</v>
       </c>
       <c r="R79" t="s">
@@ -8082,13 +8088,13 @@
       <c r="N80">
         <v>76</v>
       </c>
-      <c r="O80" t="b">
-        <v>0</v>
-      </c>
-      <c r="P80" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q80" t="b">
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
         <v>1</v>
       </c>
       <c r="R80" t="s">
@@ -8135,13 +8141,13 @@
       <c r="N81">
         <v>76</v>
       </c>
-      <c r="O81" t="b">
-        <v>0</v>
-      </c>
-      <c r="P81" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q81" t="b">
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
         <v>1</v>
       </c>
       <c r="R81" t="s">
@@ -8188,13 +8194,13 @@
       <c r="N82">
         <v>76</v>
       </c>
-      <c r="O82" t="b">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82" t="b">
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
         <v>1</v>
       </c>
       <c r="R82" t="s">
@@ -8244,13 +8250,13 @@
       <c r="N83">
         <v>76</v>
       </c>
-      <c r="O83" t="b">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="b">
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
         <v>1</v>
       </c>
       <c r="R83" t="s">
@@ -8300,13 +8306,13 @@
       <c r="N84">
         <v>76</v>
       </c>
-      <c r="O84" t="b">
-        <v>0</v>
-      </c>
-      <c r="P84" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q84" t="b">
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
         <v>1</v>
       </c>
       <c r="R84" t="s">
@@ -8353,13 +8359,13 @@
       <c r="N85">
         <v>76</v>
       </c>
-      <c r="O85" t="b">
-        <v>0</v>
-      </c>
-      <c r="P85" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q85" t="b">
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
         <v>1</v>
       </c>
       <c r="R85" t="s">
@@ -8406,13 +8412,13 @@
       <c r="N86">
         <v>76</v>
       </c>
-      <c r="O86" t="b">
-        <v>0</v>
-      </c>
-      <c r="P86" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q86" t="b">
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
         <v>1</v>
       </c>
       <c r="R86" t="s">
@@ -8459,13 +8465,13 @@
       <c r="N87">
         <v>76</v>
       </c>
-      <c r="O87" t="b">
-        <v>0</v>
-      </c>
-      <c r="P87" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q87" t="b">
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
         <v>1</v>
       </c>
       <c r="R87" t="s">
@@ -8512,13 +8518,13 @@
       <c r="N88">
         <v>76</v>
       </c>
-      <c r="O88" t="b">
-        <v>0</v>
-      </c>
-      <c r="P88" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q88" t="b">
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
         <v>1</v>
       </c>
       <c r="R88" t="s">
@@ -8565,13 +8571,13 @@
       <c r="N89">
         <v>76</v>
       </c>
-      <c r="O89" t="b">
-        <v>0</v>
-      </c>
-      <c r="P89" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="b">
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
         <v>1</v>
       </c>
       <c r="R89" t="s">
@@ -8618,13 +8624,13 @@
       <c r="N90">
         <v>76</v>
       </c>
-      <c r="O90" t="b">
-        <v>0</v>
-      </c>
-      <c r="P90" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q90" t="b">
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90">
         <v>1</v>
       </c>
       <c r="R90" t="s">
@@ -8671,13 +8677,13 @@
       <c r="N91">
         <v>76</v>
       </c>
-      <c r="O91" t="b">
-        <v>0</v>
-      </c>
-      <c r="P91" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q91" t="b">
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91">
         <v>1</v>
       </c>
       <c r="R91" t="s">
@@ -8724,13 +8730,13 @@
       <c r="N92">
         <v>76</v>
       </c>
-      <c r="O92" t="b">
-        <v>0</v>
-      </c>
-      <c r="P92" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q92" t="b">
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92">
         <v>1</v>
       </c>
       <c r="R92" t="s">
@@ -8780,13 +8786,13 @@
       <c r="N93">
         <v>76</v>
       </c>
-      <c r="O93" t="b">
-        <v>0</v>
-      </c>
-      <c r="P93" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q93" t="b">
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93">
         <v>1</v>
       </c>
       <c r="R93" t="s">
@@ -8836,13 +8842,13 @@
       <c r="N94">
         <v>76</v>
       </c>
-      <c r="O94" t="b">
-        <v>0</v>
-      </c>
-      <c r="P94" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q94" t="b">
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
         <v>1</v>
       </c>
       <c r="R94" t="s">
@@ -8889,13 +8895,13 @@
       <c r="N95">
         <v>76</v>
       </c>
-      <c r="O95" t="b">
-        <v>0</v>
-      </c>
-      <c r="P95" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q95" t="b">
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95">
         <v>1</v>
       </c>
       <c r="R95" t="s">
@@ -8942,13 +8948,13 @@
       <c r="N96">
         <v>76</v>
       </c>
-      <c r="O96" t="b">
-        <v>0</v>
-      </c>
-      <c r="P96" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q96" t="b">
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
         <v>1</v>
       </c>
       <c r="R96" t="s">
@@ -8995,13 +9001,13 @@
       <c r="N97">
         <v>76</v>
       </c>
-      <c r="O97" t="b">
-        <v>0</v>
-      </c>
-      <c r="P97" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q97" t="b">
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
         <v>1</v>
       </c>
       <c r="R97" t="s">
@@ -9048,13 +9054,13 @@
       <c r="N98">
         <v>76</v>
       </c>
-      <c r="O98" t="b">
-        <v>0</v>
-      </c>
-      <c r="P98" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q98" t="b">
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
         <v>1</v>
       </c>
       <c r="R98" t="s">
@@ -9101,13 +9107,13 @@
       <c r="N99">
         <v>76</v>
       </c>
-      <c r="O99" t="b">
-        <v>0</v>
-      </c>
-      <c r="P99" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q99" t="b">
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
         <v>1</v>
       </c>
       <c r="R99" t="s">
@@ -9154,13 +9160,13 @@
       <c r="N100">
         <v>76</v>
       </c>
-      <c r="O100" t="b">
-        <v>0</v>
-      </c>
-      <c r="P100" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q100" t="b">
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+      <c r="Q100">
         <v>1</v>
       </c>
       <c r="R100" t="s">
@@ -9207,13 +9213,13 @@
       <c r="N101">
         <v>76</v>
       </c>
-      <c r="O101" t="b">
-        <v>0</v>
-      </c>
-      <c r="P101" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q101" t="b">
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+      <c r="Q101">
         <v>1</v>
       </c>
       <c r="R101" t="s">
@@ -9260,13 +9266,13 @@
       <c r="N102">
         <v>76</v>
       </c>
-      <c r="O102" t="b">
-        <v>0</v>
-      </c>
-      <c r="P102" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q102" t="b">
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102">
         <v>1</v>
       </c>
       <c r="R102" t="s">
@@ -9313,13 +9319,13 @@
       <c r="N103">
         <v>76</v>
       </c>
-      <c r="O103" t="b">
-        <v>0</v>
-      </c>
-      <c r="P103" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q103" t="b">
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103">
         <v>1</v>
       </c>
       <c r="R103" t="s">
@@ -9366,13 +9372,13 @@
       <c r="N104">
         <v>76</v>
       </c>
-      <c r="O104" t="b">
-        <v>0</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104" t="b">
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>1</v>
       </c>
       <c r="R104" t="s">
@@ -9422,13 +9428,13 @@
       <c r="N105">
         <v>76</v>
       </c>
-      <c r="O105" t="b">
-        <v>0</v>
-      </c>
-      <c r="P105" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q105" t="b">
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
         <v>1</v>
       </c>
       <c r="R105" t="s">
@@ -9478,13 +9484,13 @@
       <c r="N106">
         <v>76</v>
       </c>
-      <c r="O106" t="b">
-        <v>0</v>
-      </c>
-      <c r="P106" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q106" t="b">
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106">
         <v>1</v>
       </c>
       <c r="R106" t="s">
@@ -9534,13 +9540,13 @@
       <c r="N107">
         <v>76</v>
       </c>
-      <c r="O107" t="b">
-        <v>0</v>
-      </c>
-      <c r="P107" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q107" t="b">
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107">
         <v>1</v>
       </c>
       <c r="R107" t="s">
@@ -9590,13 +9596,13 @@
       <c r="N108">
         <v>76</v>
       </c>
-      <c r="O108" t="b">
-        <v>0</v>
-      </c>
-      <c r="P108" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q108" t="b">
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108">
         <v>1</v>
       </c>
       <c r="R108" t="s">
@@ -9643,13 +9649,13 @@
       <c r="N109">
         <v>76</v>
       </c>
-      <c r="O109" t="b">
-        <v>0</v>
-      </c>
-      <c r="P109" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q109" t="b">
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
         <v>1</v>
       </c>
       <c r="R109" t="s">
@@ -9696,13 +9702,13 @@
       <c r="N110">
         <v>76</v>
       </c>
-      <c r="O110" t="b">
-        <v>0</v>
-      </c>
-      <c r="P110" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q110" t="b">
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
         <v>1</v>
       </c>
       <c r="R110" t="s">
@@ -9752,13 +9758,13 @@
       <c r="N111">
         <v>76</v>
       </c>
-      <c r="O111" t="b">
-        <v>0</v>
-      </c>
-      <c r="P111" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q111" t="b">
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111">
         <v>1</v>
       </c>
       <c r="R111" t="s">
@@ -9808,13 +9814,13 @@
       <c r="N112">
         <v>76</v>
       </c>
-      <c r="O112" t="b">
-        <v>0</v>
-      </c>
-      <c r="P112" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q112" t="b">
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112">
         <v>1</v>
       </c>
       <c r="R112" t="s">
@@ -9864,13 +9870,13 @@
       <c r="N113">
         <v>76</v>
       </c>
-      <c r="O113" t="b">
-        <v>0</v>
-      </c>
-      <c r="P113" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q113" t="b">
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113">
         <v>1</v>
       </c>
       <c r="R113" t="s">
@@ -9920,13 +9926,13 @@
       <c r="N114">
         <v>76</v>
       </c>
-      <c r="O114" t="b">
-        <v>0</v>
-      </c>
-      <c r="P114" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q114" t="b">
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114">
         <v>1</v>
       </c>
       <c r="R114" t="s">
@@ -9973,13 +9979,13 @@
       <c r="N115">
         <v>76</v>
       </c>
-      <c r="O115" t="b">
-        <v>0</v>
-      </c>
-      <c r="P115" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q115" t="b">
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115">
         <v>1</v>
       </c>
       <c r="R115" t="s">
@@ -10026,13 +10032,13 @@
       <c r="N116">
         <v>76</v>
       </c>
-      <c r="O116" t="b">
-        <v>0</v>
-      </c>
-      <c r="P116" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q116" t="b">
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116">
         <v>1</v>
       </c>
       <c r="R116" t="s">
@@ -10079,13 +10085,13 @@
       <c r="N117">
         <v>76</v>
       </c>
-      <c r="O117" t="b">
-        <v>0</v>
-      </c>
-      <c r="P117" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q117" t="b">
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117">
         <v>1</v>
       </c>
       <c r="R117" t="s">
@@ -10132,13 +10138,13 @@
       <c r="N118">
         <v>76</v>
       </c>
-      <c r="O118" t="b">
-        <v>0</v>
-      </c>
-      <c r="P118" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="b">
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
         <v>1</v>
       </c>
       <c r="R118" t="s">
@@ -10185,13 +10191,13 @@
       <c r="N119">
         <v>76</v>
       </c>
-      <c r="O119" t="b">
-        <v>0</v>
-      </c>
-      <c r="P119" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="b">
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119">
         <v>1</v>
       </c>
       <c r="R119" t="s">
@@ -10238,13 +10244,13 @@
       <c r="N120">
         <v>76</v>
       </c>
-      <c r="O120" t="b">
-        <v>0</v>
-      </c>
-      <c r="P120" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="b">
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120">
         <v>1</v>
       </c>
       <c r="R120" t="s">
@@ -10291,13 +10297,13 @@
       <c r="N121">
         <v>83</v>
       </c>
-      <c r="O121" t="b">
-        <v>0</v>
-      </c>
-      <c r="P121" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q121" t="b">
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121">
         <v>1</v>
       </c>
       <c r="R121" t="s">
@@ -10347,13 +10353,13 @@
       <c r="N122">
         <v>83</v>
       </c>
-      <c r="O122" t="b">
-        <v>0</v>
-      </c>
-      <c r="P122" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="b">
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122">
         <v>1</v>
       </c>
       <c r="R122" t="s">
@@ -10403,13 +10409,13 @@
       <c r="N123">
         <v>83</v>
       </c>
-      <c r="O123" t="b">
-        <v>0</v>
-      </c>
-      <c r="P123" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q123" t="b">
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123">
         <v>1</v>
       </c>
       <c r="R123" t="s">
@@ -10459,13 +10465,13 @@
       <c r="N124">
         <v>83</v>
       </c>
-      <c r="O124" t="b">
-        <v>0</v>
-      </c>
-      <c r="P124" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q124" t="b">
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124">
         <v>1</v>
       </c>
       <c r="R124" t="s">
@@ -10512,13 +10518,13 @@
       <c r="N125">
         <v>83</v>
       </c>
-      <c r="O125" t="b">
-        <v>0</v>
-      </c>
-      <c r="P125" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q125" t="b">
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125">
         <v>1</v>
       </c>
       <c r="R125" t="s">
@@ -10565,13 +10571,13 @@
       <c r="N126">
         <v>83</v>
       </c>
-      <c r="O126" t="b">
-        <v>0</v>
-      </c>
-      <c r="P126" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q126" t="b">
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126">
         <v>1</v>
       </c>
       <c r="R126" t="s">
@@ -10618,13 +10624,13 @@
       <c r="N127">
         <v>83</v>
       </c>
-      <c r="O127" t="b">
-        <v>0</v>
-      </c>
-      <c r="P127" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q127" t="b">
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127">
         <v>1</v>
       </c>
       <c r="R127" t="s">
@@ -10674,13 +10680,13 @@
       <c r="N128">
         <v>83</v>
       </c>
-      <c r="O128" t="b">
-        <v>0</v>
-      </c>
-      <c r="P128" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q128" t="b">
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128">
         <v>1</v>
       </c>
       <c r="R128" t="s">
@@ -10730,13 +10736,13 @@
       <c r="N129">
         <v>83</v>
       </c>
-      <c r="O129" t="b">
-        <v>0</v>
-      </c>
-      <c r="P129" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="b">
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129">
         <v>1</v>
       </c>
       <c r="R129" t="s">
@@ -10786,13 +10792,13 @@
       <c r="N130">
         <v>83</v>
       </c>
-      <c r="O130" t="b">
-        <v>0</v>
-      </c>
-      <c r="P130" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="b">
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
         <v>1</v>
       </c>
       <c r="R130" t="s">
@@ -10839,13 +10845,13 @@
       <c r="N131">
         <v>83</v>
       </c>
-      <c r="O131" t="b">
-        <v>0</v>
-      </c>
-      <c r="P131" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="b">
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+      <c r="Q131">
         <v>1</v>
       </c>
       <c r="R131" t="s">
@@ -10892,13 +10898,13 @@
       <c r="N132">
         <v>83</v>
       </c>
-      <c r="O132" t="b">
-        <v>0</v>
-      </c>
-      <c r="P132" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q132" t="b">
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+      <c r="Q132">
         <v>1</v>
       </c>
       <c r="R132" t="s">
@@ -10945,13 +10951,13 @@
       <c r="N133">
         <v>83</v>
       </c>
-      <c r="O133" t="b">
-        <v>0</v>
-      </c>
-      <c r="P133" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q133" t="b">
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+      <c r="Q133">
         <v>1</v>
       </c>
       <c r="R133" t="s">
@@ -11001,13 +11007,13 @@
       <c r="N134">
         <v>83</v>
       </c>
-      <c r="O134" t="b">
-        <v>0</v>
-      </c>
-      <c r="P134" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q134" t="b">
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+      <c r="Q134">
         <v>1</v>
       </c>
       <c r="R134" t="s">
@@ -11057,13 +11063,13 @@
       <c r="N135">
         <v>83</v>
       </c>
-      <c r="O135" t="b">
-        <v>0</v>
-      </c>
-      <c r="P135" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q135" t="b">
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
         <v>1</v>
       </c>
       <c r="R135" t="s">
@@ -11110,13 +11116,13 @@
       <c r="N136">
         <v>83</v>
       </c>
-      <c r="O136" t="b">
-        <v>0</v>
-      </c>
-      <c r="P136" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q136" t="b">
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+      <c r="Q136">
         <v>1</v>
       </c>
       <c r="R136" t="s">
@@ -11163,13 +11169,13 @@
       <c r="N137">
         <v>83</v>
       </c>
-      <c r="O137" t="b">
-        <v>0</v>
-      </c>
-      <c r="P137" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q137" t="b">
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+      <c r="Q137">
         <v>1</v>
       </c>
       <c r="R137" t="s">
@@ -11216,13 +11222,13 @@
       <c r="N138">
         <v>83</v>
       </c>
-      <c r="O138" t="b">
-        <v>0</v>
-      </c>
-      <c r="P138" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q138" t="b">
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
         <v>1</v>
       </c>
       <c r="R138" t="s">
@@ -11269,13 +11275,13 @@
       <c r="N139">
         <v>83</v>
       </c>
-      <c r="O139" t="b">
-        <v>0</v>
-      </c>
-      <c r="P139" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q139" t="b">
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+      <c r="Q139">
         <v>1</v>
       </c>
       <c r="R139" t="s">
@@ -11322,13 +11328,13 @@
       <c r="N140">
         <v>83</v>
       </c>
-      <c r="O140" t="b">
-        <v>0</v>
-      </c>
-      <c r="P140" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q140" t="b">
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+      <c r="Q140">
         <v>1</v>
       </c>
       <c r="R140" t="s">
@@ -11375,13 +11381,13 @@
       <c r="N141">
         <v>83</v>
       </c>
-      <c r="O141" t="b">
-        <v>0</v>
-      </c>
-      <c r="P141" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q141" t="b">
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
         <v>1</v>
       </c>
       <c r="R141" t="s">
@@ -11431,13 +11437,13 @@
       <c r="N142">
         <v>83</v>
       </c>
-      <c r="O142" t="b">
-        <v>0</v>
-      </c>
-      <c r="P142" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q142" t="b">
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+      <c r="Q142">
         <v>1</v>
       </c>
       <c r="R142" t="s">
@@ -11484,13 +11490,13 @@
       <c r="N143">
         <v>83</v>
       </c>
-      <c r="O143" t="b">
-        <v>0</v>
-      </c>
-      <c r="P143" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q143" t="b">
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+      <c r="Q143">
         <v>1</v>
       </c>
       <c r="R143" t="s">
@@ -11537,13 +11543,13 @@
       <c r="N144">
         <v>83</v>
       </c>
-      <c r="O144" t="b">
-        <v>0</v>
-      </c>
-      <c r="P144" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q144" t="b">
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
         <v>1</v>
       </c>
       <c r="R144" t="s">
@@ -11593,13 +11599,13 @@
       <c r="N145">
         <v>83</v>
       </c>
-      <c r="O145" t="b">
-        <v>0</v>
-      </c>
-      <c r="P145" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q145" t="b">
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+      <c r="Q145">
         <v>1</v>
       </c>
       <c r="R145" t="s">
@@ -11646,13 +11652,13 @@
       <c r="N146">
         <v>83</v>
       </c>
-      <c r="O146" t="b">
-        <v>0</v>
-      </c>
-      <c r="P146" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q146" t="b">
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+      <c r="Q146">
         <v>1</v>
       </c>
       <c r="R146" t="s">
@@ -11699,13 +11705,13 @@
       <c r="N147">
         <v>83</v>
       </c>
-      <c r="O147" t="b">
-        <v>0</v>
-      </c>
-      <c r="P147" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q147" t="b">
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
         <v>1</v>
       </c>
       <c r="R147" t="s">
@@ -11752,13 +11758,13 @@
       <c r="N148">
         <v>83</v>
       </c>
-      <c r="O148" t="b">
-        <v>0</v>
-      </c>
-      <c r="P148" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q148" t="b">
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+      <c r="Q148">
         <v>1</v>
       </c>
       <c r="R148" t="s">
@@ -11808,13 +11814,13 @@
       <c r="N149">
         <v>83</v>
       </c>
-      <c r="O149" t="b">
-        <v>0</v>
-      </c>
-      <c r="P149" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q149" t="b">
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+      <c r="Q149">
         <v>1</v>
       </c>
       <c r="R149" t="s">
@@ -11861,13 +11867,13 @@
       <c r="N150">
         <v>106</v>
       </c>
-      <c r="O150" t="b">
-        <v>0</v>
-      </c>
-      <c r="P150" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q150" t="b">
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+      <c r="Q150">
         <v>1</v>
       </c>
       <c r="R150" t="s">
@@ -11917,13 +11923,13 @@
       <c r="N151">
         <v>106</v>
       </c>
-      <c r="O151" t="b">
-        <v>0</v>
-      </c>
-      <c r="P151" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q151" t="b">
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+      <c r="Q151">
         <v>1</v>
       </c>
       <c r="R151" t="s">
@@ -11970,13 +11976,13 @@
       <c r="N152">
         <v>106</v>
       </c>
-      <c r="O152" t="b">
-        <v>0</v>
-      </c>
-      <c r="P152" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q152" t="b">
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+      <c r="Q152">
         <v>1</v>
       </c>
       <c r="R152" t="s">
@@ -12023,13 +12029,13 @@
       <c r="N153">
         <v>106</v>
       </c>
-      <c r="O153" t="b">
-        <v>0</v>
-      </c>
-      <c r="P153" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q153" t="b">
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
         <v>1</v>
       </c>
       <c r="R153" t="s">
@@ -12076,13 +12082,13 @@
       <c r="N154">
         <v>106</v>
       </c>
-      <c r="O154" t="b">
-        <v>0</v>
-      </c>
-      <c r="P154" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q154" t="b">
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
         <v>1</v>
       </c>
       <c r="R154" t="s">
@@ -12129,13 +12135,13 @@
       <c r="N155">
         <v>106</v>
       </c>
-      <c r="O155" t="b">
-        <v>0</v>
-      </c>
-      <c r="P155" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q155" t="b">
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
         <v>1</v>
       </c>
       <c r="R155" t="s">
@@ -12182,13 +12188,13 @@
       <c r="N156">
         <v>106</v>
       </c>
-      <c r="O156" t="b">
-        <v>0</v>
-      </c>
-      <c r="P156" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q156" t="b">
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
         <v>1</v>
       </c>
       <c r="R156" t="s">
@@ -12238,13 +12244,13 @@
       <c r="N157">
         <v>106</v>
       </c>
-      <c r="O157" t="b">
-        <v>0</v>
-      </c>
-      <c r="P157" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q157" t="b">
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
         <v>1</v>
       </c>
       <c r="R157" t="s">
@@ -12291,13 +12297,13 @@
       <c r="N158">
         <v>106</v>
       </c>
-      <c r="O158" t="b">
-        <v>0</v>
-      </c>
-      <c r="P158" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q158" t="b">
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
         <v>1</v>
       </c>
       <c r="R158" t="s">
@@ -12344,13 +12350,13 @@
       <c r="N159">
         <v>106</v>
       </c>
-      <c r="O159" t="b">
-        <v>0</v>
-      </c>
-      <c r="P159" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q159" t="b">
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
         <v>1</v>
       </c>
       <c r="R159" t="s">
@@ -12400,13 +12406,13 @@
       <c r="N160">
         <v>106</v>
       </c>
-      <c r="O160" t="b">
-        <v>0</v>
-      </c>
-      <c r="P160" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q160" t="b">
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
         <v>1</v>
       </c>
       <c r="R160" t="s">
@@ -12453,13 +12459,13 @@
       <c r="N161">
         <v>106</v>
       </c>
-      <c r="O161" t="b">
-        <v>0</v>
-      </c>
-      <c r="P161" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q161" t="b">
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
         <v>1</v>
       </c>
       <c r="R161" t="s">
@@ -12506,13 +12512,13 @@
       <c r="N162">
         <v>106</v>
       </c>
-      <c r="O162" t="b">
-        <v>0</v>
-      </c>
-      <c r="P162" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q162" t="b">
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
         <v>1</v>
       </c>
       <c r="R162" t="s">
@@ -12562,13 +12568,13 @@
       <c r="N163">
         <v>106</v>
       </c>
-      <c r="O163" t="b">
-        <v>0</v>
-      </c>
-      <c r="P163" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q163" t="b">
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
         <v>1</v>
       </c>
       <c r="R163" t="s">
@@ -12615,13 +12621,13 @@
       <c r="N164">
         <v>106</v>
       </c>
-      <c r="O164" t="b">
-        <v>0</v>
-      </c>
-      <c r="P164" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q164" t="b">
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
         <v>1</v>
       </c>
       <c r="R164" t="s">
@@ -12668,13 +12674,13 @@
       <c r="N165">
         <v>106</v>
       </c>
-      <c r="O165" t="b">
-        <v>0</v>
-      </c>
-      <c r="P165" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q165" t="b">
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+      <c r="Q165">
         <v>1</v>
       </c>
       <c r="R165" t="s">
@@ -12721,13 +12727,13 @@
       <c r="N166">
         <v>106</v>
       </c>
-      <c r="O166" t="b">
-        <v>0</v>
-      </c>
-      <c r="P166" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q166" t="b">
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
         <v>1</v>
       </c>
       <c r="R166" t="s">
@@ -12774,13 +12780,13 @@
       <c r="N167">
         <v>106</v>
       </c>
-      <c r="O167" t="b">
-        <v>0</v>
-      </c>
-      <c r="P167" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q167" t="b">
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
         <v>1</v>
       </c>
       <c r="R167" t="s">
@@ -12827,13 +12833,13 @@
       <c r="N168">
         <v>106</v>
       </c>
-      <c r="O168" t="b">
-        <v>0</v>
-      </c>
-      <c r="P168" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q168" t="b">
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+      <c r="Q168">
         <v>1</v>
       </c>
       <c r="R168" t="s">
@@ -12880,13 +12886,13 @@
       <c r="N169">
         <v>106</v>
       </c>
-      <c r="O169" t="b">
-        <v>0</v>
-      </c>
-      <c r="P169" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q169" t="b">
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
         <v>1</v>
       </c>
       <c r="R169" t="s">
@@ -12933,13 +12939,13 @@
       <c r="N170">
         <v>106</v>
       </c>
-      <c r="O170" t="b">
-        <v>0</v>
-      </c>
-      <c r="P170" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q170" t="b">
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+      <c r="Q170">
         <v>1</v>
       </c>
       <c r="R170" t="s">
@@ -12986,13 +12992,13 @@
       <c r="N171">
         <v>106</v>
       </c>
-      <c r="O171" t="b">
-        <v>0</v>
-      </c>
-      <c r="P171" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q171" t="b">
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
         <v>1</v>
       </c>
       <c r="R171" t="s">
@@ -13039,13 +13045,13 @@
       <c r="N172">
         <v>106</v>
       </c>
-      <c r="O172" t="b">
-        <v>0</v>
-      </c>
-      <c r="P172" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q172" t="b">
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+      <c r="Q172">
         <v>1</v>
       </c>
       <c r="R172" t="s">
@@ -13095,13 +13101,13 @@
       <c r="N173">
         <v>106</v>
       </c>
-      <c r="O173" t="b">
-        <v>0</v>
-      </c>
-      <c r="P173" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q173" t="b">
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
         <v>1</v>
       </c>
       <c r="R173" t="s">
@@ -13151,13 +13157,13 @@
       <c r="N174">
         <v>106</v>
       </c>
-      <c r="O174" t="b">
-        <v>0</v>
-      </c>
-      <c r="P174" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q174" t="b">
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+      <c r="Q174">
         <v>1</v>
       </c>
       <c r="R174" t="s">
@@ -13207,13 +13213,13 @@
       <c r="N175">
         <v>106</v>
       </c>
-      <c r="O175" t="b">
-        <v>0</v>
-      </c>
-      <c r="P175" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q175" t="b">
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+      <c r="Q175">
         <v>1</v>
       </c>
       <c r="R175" t="s">
@@ -13260,13 +13266,13 @@
       <c r="N176">
         <v>106</v>
       </c>
-      <c r="O176" t="b">
-        <v>0</v>
-      </c>
-      <c r="P176" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q176" t="b">
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
       <c r="R176" t="s">
@@ -13316,13 +13322,13 @@
       <c r="N177">
         <v>106</v>
       </c>
-      <c r="O177" t="b">
-        <v>0</v>
-      </c>
-      <c r="P177" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q177" t="b">
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+      <c r="Q177">
         <v>1</v>
       </c>
       <c r="R177" t="s">
@@ -13372,13 +13378,13 @@
       <c r="N178">
         <v>106</v>
       </c>
-      <c r="O178" t="b">
-        <v>0</v>
-      </c>
-      <c r="P178" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q178" t="b">
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
         <v>1</v>
       </c>
       <c r="R178" t="s">
@@ -13425,13 +13431,13 @@
       <c r="N179">
         <v>106</v>
       </c>
-      <c r="O179" t="b">
-        <v>0</v>
-      </c>
-      <c r="P179" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q179" t="b">
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+      <c r="Q179">
         <v>1</v>
       </c>
       <c r="R179" t="s">
@@ -13478,13 +13484,13 @@
       <c r="N180">
         <v>219</v>
       </c>
-      <c r="O180" t="b">
-        <v>0</v>
-      </c>
-      <c r="P180" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q180" t="b">
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
         <v>1</v>
       </c>
       <c r="R180" t="s">
@@ -13531,13 +13537,13 @@
       <c r="N181">
         <v>219</v>
       </c>
-      <c r="O181" t="b">
-        <v>0</v>
-      </c>
-      <c r="P181" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q181" t="b">
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
         <v>1</v>
       </c>
       <c r="R181" t="s">
@@ -13584,13 +13590,13 @@
       <c r="N182">
         <v>219</v>
       </c>
-      <c r="O182" t="b">
-        <v>0</v>
-      </c>
-      <c r="P182" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q182" t="b">
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
         <v>1</v>
       </c>
       <c r="R182" t="s">
@@ -13637,13 +13643,13 @@
       <c r="N183">
         <v>219</v>
       </c>
-      <c r="O183" t="b">
-        <v>0</v>
-      </c>
-      <c r="P183" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q183" t="b">
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+      <c r="Q183">
         <v>1</v>
       </c>
       <c r="R183" t="s">
@@ -13690,13 +13696,13 @@
       <c r="N184">
         <v>219</v>
       </c>
-      <c r="O184" t="b">
-        <v>0</v>
-      </c>
-      <c r="P184" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q184" t="b">
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+      <c r="Q184">
         <v>1</v>
       </c>
       <c r="R184" t="s">
@@ -13743,13 +13749,13 @@
       <c r="N185">
         <v>219</v>
       </c>
-      <c r="O185" t="b">
-        <v>0</v>
-      </c>
-      <c r="P185" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q185" t="b">
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
         <v>1</v>
       </c>
       <c r="R185" t="s">
@@ -13799,13 +13805,13 @@
       <c r="N186">
         <v>219</v>
       </c>
-      <c r="O186" t="b">
-        <v>0</v>
-      </c>
-      <c r="P186" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q186" t="b">
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
         <v>1</v>
       </c>
       <c r="R186" t="s">
@@ -13852,13 +13858,13 @@
       <c r="N187">
         <v>219</v>
       </c>
-      <c r="O187" t="b">
-        <v>0</v>
-      </c>
-      <c r="P187" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q187" t="b">
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
         <v>1</v>
       </c>
       <c r="R187" t="s">
@@ -13905,13 +13911,13 @@
       <c r="N188">
         <v>219</v>
       </c>
-      <c r="O188" t="b">
-        <v>0</v>
-      </c>
-      <c r="P188" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q188" t="b">
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
         <v>1</v>
       </c>
       <c r="R188" t="s">
@@ -13961,13 +13967,13 @@
       <c r="N189">
         <v>219</v>
       </c>
-      <c r="O189" t="b">
-        <v>0</v>
-      </c>
-      <c r="P189" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q189" t="b">
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+      <c r="Q189">
         <v>1</v>
       </c>
       <c r="R189" t="s">
@@ -14014,13 +14020,13 @@
       <c r="N190">
         <v>219</v>
       </c>
-      <c r="O190" t="b">
-        <v>0</v>
-      </c>
-      <c r="P190" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q190" t="b">
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+      <c r="Q190">
         <v>1</v>
       </c>
       <c r="R190" t="s">
@@ -14067,13 +14073,13 @@
       <c r="N191">
         <v>219</v>
       </c>
-      <c r="O191" t="b">
-        <v>0</v>
-      </c>
-      <c r="P191" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q191" t="b">
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+      <c r="Q191">
         <v>1</v>
       </c>
       <c r="R191" t="s">
@@ -14120,13 +14126,13 @@
       <c r="N192">
         <v>219</v>
       </c>
-      <c r="O192" t="b">
-        <v>0</v>
-      </c>
-      <c r="P192" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q192" t="b">
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+      <c r="Q192">
         <v>1</v>
       </c>
       <c r="R192" t="s">
@@ -14173,13 +14179,13 @@
       <c r="N193">
         <v>219</v>
       </c>
-      <c r="O193" t="b">
-        <v>0</v>
-      </c>
-      <c r="P193" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q193" t="b">
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+      <c r="Q193">
         <v>1</v>
       </c>
       <c r="R193" t="s">
@@ -14229,13 +14235,13 @@
       <c r="N194">
         <v>219</v>
       </c>
-      <c r="O194" t="b">
-        <v>0</v>
-      </c>
-      <c r="P194" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q194" t="b">
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+      <c r="Q194">
         <v>1</v>
       </c>
       <c r="R194" t="s">
@@ -14285,13 +14291,13 @@
       <c r="N195">
         <v>219</v>
       </c>
-      <c r="O195" t="b">
-        <v>0</v>
-      </c>
-      <c r="P195" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q195" t="b">
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+      <c r="Q195">
         <v>1</v>
       </c>
       <c r="R195" t="s">
@@ -14338,13 +14344,13 @@
       <c r="N196">
         <v>219</v>
       </c>
-      <c r="O196" t="b">
-        <v>0</v>
-      </c>
-      <c r="P196" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q196" t="b">
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
         <v>1</v>
       </c>
       <c r="R196" t="s">
@@ -14391,13 +14397,13 @@
       <c r="N197">
         <v>219</v>
       </c>
-      <c r="O197" t="b">
-        <v>0</v>
-      </c>
-      <c r="P197" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q197" t="b">
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
         <v>1</v>
       </c>
       <c r="R197" t="s">
@@ -14444,13 +14450,13 @@
       <c r="N198">
         <v>219</v>
       </c>
-      <c r="O198" t="b">
-        <v>0</v>
-      </c>
-      <c r="P198" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q198" t="b">
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+      <c r="Q198">
         <v>1</v>
       </c>
       <c r="R198" t="s">
@@ -14500,13 +14506,13 @@
       <c r="N199">
         <v>219</v>
       </c>
-      <c r="O199" t="b">
-        <v>0</v>
-      </c>
-      <c r="P199" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q199" t="b">
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
         <v>1</v>
       </c>
       <c r="R199" t="s">
@@ -14553,13 +14559,13 @@
       <c r="N200">
         <v>219</v>
       </c>
-      <c r="O200" t="b">
-        <v>0</v>
-      </c>
-      <c r="P200" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q200" t="b">
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
         <v>1</v>
       </c>
       <c r="R200" t="s">
@@ -14606,13 +14612,13 @@
       <c r="N201">
         <v>219</v>
       </c>
-      <c r="O201" t="b">
-        <v>0</v>
-      </c>
-      <c r="P201" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q201" t="b">
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
         <v>1</v>
       </c>
       <c r="R201" t="s">
@@ -14659,13 +14665,13 @@
       <c r="N202">
         <v>219</v>
       </c>
-      <c r="O202" t="b">
-        <v>0</v>
-      </c>
-      <c r="P202" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q202" t="b">
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+      <c r="Q202">
         <v>1</v>
       </c>
       <c r="R202" t="s">
@@ -14712,13 +14718,13 @@
       <c r="N203">
         <v>219</v>
       </c>
-      <c r="O203" t="b">
-        <v>0</v>
-      </c>
-      <c r="P203" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q203" t="b">
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+      <c r="Q203">
         <v>1</v>
       </c>
       <c r="R203" t="s">
@@ -14765,13 +14771,13 @@
       <c r="N204">
         <v>219</v>
       </c>
-      <c r="O204" t="b">
-        <v>0</v>
-      </c>
-      <c r="P204" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q204" t="b">
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+      <c r="Q204">
         <v>1</v>
       </c>
       <c r="R204" t="s">
@@ -14818,13 +14824,13 @@
       <c r="N205">
         <v>219</v>
       </c>
-      <c r="O205" t="b">
-        <v>0</v>
-      </c>
-      <c r="P205" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="b">
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+      <c r="Q205">
         <v>1</v>
       </c>
       <c r="R205" t="s">
@@ -14871,13 +14877,13 @@
       <c r="N206">
         <v>219</v>
       </c>
-      <c r="O206" t="b">
-        <v>0</v>
-      </c>
-      <c r="P206" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q206" t="b">
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+      <c r="Q206">
         <v>1</v>
       </c>
       <c r="R206" t="s">
@@ -14927,13 +14933,13 @@
       <c r="N207">
         <v>219</v>
       </c>
-      <c r="O207" t="b">
-        <v>0</v>
-      </c>
-      <c r="P207" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q207" t="b">
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+      <c r="Q207">
         <v>1</v>
       </c>
       <c r="R207" t="s">
@@ -14980,13 +14986,13 @@
       <c r="N208">
         <v>219</v>
       </c>
-      <c r="O208" t="b">
-        <v>0</v>
-      </c>
-      <c r="P208" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q208" t="b">
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+      <c r="Q208">
         <v>1</v>
       </c>
       <c r="R208" t="s">
@@ -15033,13 +15039,13 @@
       <c r="N209">
         <v>219</v>
       </c>
-      <c r="O209" t="b">
-        <v>0</v>
-      </c>
-      <c r="P209" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q209" t="b">
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+      <c r="Q209">
         <v>1</v>
       </c>
       <c r="R209" t="s">
@@ -15086,13 +15092,13 @@
       <c r="N210">
         <v>734</v>
       </c>
-      <c r="O210" t="b">
-        <v>0</v>
-      </c>
-      <c r="P210" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q210" t="b">
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+      <c r="Q210">
         <v>1</v>
       </c>
       <c r="R210" t="s">
@@ -15142,13 +15148,13 @@
       <c r="N211">
         <v>734</v>
       </c>
-      <c r="O211" t="b">
-        <v>0</v>
-      </c>
-      <c r="P211" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q211" t="b">
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+      <c r="Q211">
         <v>1</v>
       </c>
       <c r="R211" t="s">
@@ -15198,13 +15204,13 @@
       <c r="N212">
         <v>734</v>
       </c>
-      <c r="O212" t="b">
-        <v>0</v>
-      </c>
-      <c r="P212" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q212" t="b">
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+      <c r="Q212">
         <v>1</v>
       </c>
       <c r="R212" t="s">
@@ -15248,13 +15254,13 @@
       <c r="N213">
         <v>734</v>
       </c>
-      <c r="O213" t="b">
-        <v>0</v>
-      </c>
-      <c r="P213" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q213" t="b">
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+      <c r="Q213">
         <v>1</v>
       </c>
       <c r="R213" t="s">
@@ -15298,13 +15304,13 @@
       <c r="N214">
         <v>734</v>
       </c>
-      <c r="O214" t="b">
-        <v>0</v>
-      </c>
-      <c r="P214" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q214" t="b">
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+      <c r="Q214">
         <v>1</v>
       </c>
       <c r="R214" t="s">
@@ -15354,13 +15360,13 @@
       <c r="N215">
         <v>734</v>
       </c>
-      <c r="O215" t="b">
-        <v>0</v>
-      </c>
-      <c r="P215" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q215" t="b">
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+      <c r="Q215">
         <v>1</v>
       </c>
       <c r="R215" t="s">
@@ -15404,13 +15410,13 @@
       <c r="N216">
         <v>734</v>
       </c>
-      <c r="O216" t="b">
-        <v>0</v>
-      </c>
-      <c r="P216" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q216" t="b">
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+      <c r="Q216">
         <v>1</v>
       </c>
       <c r="R216" t="s">
@@ -15460,13 +15466,13 @@
       <c r="N217">
         <v>734</v>
       </c>
-      <c r="O217" t="b">
-        <v>0</v>
-      </c>
-      <c r="P217" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q217" t="b">
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+      <c r="Q217">
         <v>1</v>
       </c>
       <c r="R217" t="s">
@@ -15513,13 +15519,13 @@
       <c r="N218">
         <v>734</v>
       </c>
-      <c r="O218" t="b">
-        <v>0</v>
-      </c>
-      <c r="P218" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q218" t="b">
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+      <c r="Q218">
         <v>1</v>
       </c>
       <c r="R218" t="s">
@@ -15569,13 +15575,13 @@
       <c r="N219">
         <v>734</v>
       </c>
-      <c r="O219" t="b">
-        <v>0</v>
-      </c>
-      <c r="P219" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q219" t="b">
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+      <c r="Q219">
         <v>1</v>
       </c>
       <c r="R219" t="s">
@@ -15622,13 +15628,13 @@
       <c r="N220">
         <v>734</v>
       </c>
-      <c r="O220" t="b">
-        <v>0</v>
-      </c>
-      <c r="P220" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q220" t="b">
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+      <c r="Q220">
         <v>1</v>
       </c>
       <c r="R220" t="s">
@@ -15675,13 +15681,13 @@
       <c r="N221">
         <v>734</v>
       </c>
-      <c r="O221" t="b">
-        <v>0</v>
-      </c>
-      <c r="P221" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q221" t="b">
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+      <c r="Q221">
         <v>1</v>
       </c>
       <c r="R221" t="s">
@@ -15731,13 +15737,13 @@
       <c r="N222">
         <v>734</v>
       </c>
-      <c r="O222" t="b">
-        <v>0</v>
-      </c>
-      <c r="P222" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q222" t="b">
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
         <v>1</v>
       </c>
       <c r="R222" t="s">
@@ -15781,13 +15787,13 @@
       <c r="N223">
         <v>734</v>
       </c>
-      <c r="O223" t="b">
-        <v>0</v>
-      </c>
-      <c r="P223" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q223" t="b">
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
         <v>1</v>
       </c>
       <c r="R223" t="s">
@@ -15834,13 +15840,13 @@
       <c r="N224">
         <v>734</v>
       </c>
-      <c r="O224" t="b">
-        <v>0</v>
-      </c>
-      <c r="P224" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q224" t="b">
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
         <v>1</v>
       </c>
       <c r="R224" t="s">
@@ -15884,13 +15890,13 @@
       <c r="N225">
         <v>734</v>
       </c>
-      <c r="O225" t="b">
-        <v>0</v>
-      </c>
-      <c r="P225" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q225" t="b">
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
         <v>1</v>
       </c>
       <c r="R225" t="s">
@@ -15934,13 +15940,13 @@
       <c r="N226">
         <v>734</v>
       </c>
-      <c r="O226" t="b">
-        <v>0</v>
-      </c>
-      <c r="P226" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q226" t="b">
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
         <v>1</v>
       </c>
       <c r="R226" t="s">
@@ -15990,13 +15996,13 @@
       <c r="N227">
         <v>734</v>
       </c>
-      <c r="O227" t="b">
-        <v>0</v>
-      </c>
-      <c r="P227" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q227" t="b">
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
         <v>1</v>
       </c>
       <c r="R227" t="s">
@@ -16046,13 +16052,13 @@
       <c r="N228">
         <v>734</v>
       </c>
-      <c r="O228" t="b">
-        <v>0</v>
-      </c>
-      <c r="P228" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q228" t="b">
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
         <v>1</v>
       </c>
       <c r="R228" t="s">
@@ -16102,13 +16108,13 @@
       <c r="N229">
         <v>734</v>
       </c>
-      <c r="O229" t="b">
-        <v>0</v>
-      </c>
-      <c r="P229" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q229" t="b">
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
         <v>1</v>
       </c>
       <c r="R229" t="s">
@@ -16155,13 +16161,13 @@
       <c r="N230">
         <v>734</v>
       </c>
-      <c r="O230" t="b">
-        <v>0</v>
-      </c>
-      <c r="P230" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q230" t="b">
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
         <v>1</v>
       </c>
       <c r="R230" t="s">
@@ -16211,13 +16217,13 @@
       <c r="N231">
         <v>734</v>
       </c>
-      <c r="O231" t="b">
-        <v>0</v>
-      </c>
-      <c r="P231" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q231" t="b">
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
         <v>1</v>
       </c>
       <c r="R231" t="s">
@@ -16261,13 +16267,13 @@
       <c r="N232">
         <v>734</v>
       </c>
-      <c r="O232" t="b">
-        <v>0</v>
-      </c>
-      <c r="P232" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q232" t="b">
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
         <v>1</v>
       </c>
       <c r="R232" t="s">
@@ -16314,13 +16320,13 @@
       <c r="N233">
         <v>734</v>
       </c>
-      <c r="O233" t="b">
-        <v>0</v>
-      </c>
-      <c r="P233" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q233" t="b">
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
         <v>1</v>
       </c>
       <c r="R233" t="s">
@@ -16367,13 +16373,13 @@
       <c r="N234">
         <v>734</v>
       </c>
-      <c r="O234" t="b">
-        <v>0</v>
-      </c>
-      <c r="P234" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q234" t="b">
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+      <c r="Q234">
         <v>1</v>
       </c>
       <c r="R234" t="s">
@@ -16420,13 +16426,13 @@
       <c r="N235">
         <v>734</v>
       </c>
-      <c r="O235" t="b">
-        <v>0</v>
-      </c>
-      <c r="P235" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q235" t="b">
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+      <c r="Q235">
         <v>1</v>
       </c>
       <c r="R235" t="s">
@@ -16473,13 +16479,13 @@
       <c r="N236">
         <v>734</v>
       </c>
-      <c r="O236" t="b">
-        <v>0</v>
-      </c>
-      <c r="P236" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q236" t="b">
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+      <c r="Q236">
         <v>1</v>
       </c>
       <c r="R236" t="s">
@@ -16526,13 +16532,13 @@
       <c r="N237">
         <v>734</v>
       </c>
-      <c r="O237" t="b">
-        <v>0</v>
-      </c>
-      <c r="P237" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q237" t="b">
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+      <c r="Q237">
         <v>1</v>
       </c>
       <c r="R237" t="s">
@@ -16576,13 +16582,13 @@
       <c r="N238">
         <v>734</v>
       </c>
-      <c r="O238" t="b">
-        <v>0</v>
-      </c>
-      <c r="P238" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q238" t="b">
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+      <c r="Q238">
         <v>1</v>
       </c>
       <c r="R238" t="s">
@@ -16629,13 +16635,13 @@
       <c r="N239">
         <v>734</v>
       </c>
-      <c r="O239" t="b">
-        <v>0</v>
-      </c>
-      <c r="P239" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q239" t="b">
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+      <c r="Q239">
         <v>1</v>
       </c>
       <c r="R239" t="s">
@@ -16685,13 +16691,13 @@
       <c r="N240">
         <v>204</v>
       </c>
-      <c r="O240" t="b">
-        <v>0</v>
-      </c>
-      <c r="P240" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q240" t="b">
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+      <c r="Q240">
         <v>1</v>
       </c>
       <c r="R240" t="s">
@@ -16738,13 +16744,13 @@
       <c r="N241">
         <v>204</v>
       </c>
-      <c r="O241" t="b">
-        <v>0</v>
-      </c>
-      <c r="P241" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q241" t="b">
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+      <c r="Q241">
         <v>1</v>
       </c>
       <c r="R241" t="s">
@@ -16791,13 +16797,13 @@
       <c r="N242">
         <v>204</v>
       </c>
-      <c r="O242" t="b">
-        <v>0</v>
-      </c>
-      <c r="P242" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q242" t="b">
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+      <c r="Q242">
         <v>1</v>
       </c>
       <c r="R242" t="s">
@@ -16844,13 +16850,13 @@
       <c r="N243">
         <v>204</v>
       </c>
-      <c r="O243" t="b">
-        <v>0</v>
-      </c>
-      <c r="P243" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q243" t="b">
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+      <c r="Q243">
         <v>1</v>
       </c>
       <c r="R243" t="s">
@@ -16897,13 +16903,13 @@
       <c r="N244">
         <v>204</v>
       </c>
-      <c r="O244" t="b">
-        <v>0</v>
-      </c>
-      <c r="P244" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q244" t="b">
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+      <c r="Q244">
         <v>1</v>
       </c>
       <c r="R244" t="s">
@@ -16953,13 +16959,13 @@
       <c r="N245">
         <v>204</v>
       </c>
-      <c r="O245" t="b">
-        <v>0</v>
-      </c>
-      <c r="P245" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q245" t="b">
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+      <c r="Q245">
         <v>1</v>
       </c>
       <c r="R245" t="s">
@@ -17006,13 +17012,13 @@
       <c r="N246">
         <v>204</v>
       </c>
-      <c r="O246" t="b">
-        <v>0</v>
-      </c>
-      <c r="P246" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q246" t="b">
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+      <c r="Q246">
         <v>1</v>
       </c>
       <c r="R246" t="s">
@@ -17062,13 +17068,13 @@
       <c r="N247">
         <v>204</v>
       </c>
-      <c r="O247" t="b">
-        <v>0</v>
-      </c>
-      <c r="P247" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q247" t="b">
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+      <c r="Q247">
         <v>1</v>
       </c>
       <c r="R247" t="s">
@@ -17115,13 +17121,13 @@
       <c r="N248">
         <v>204</v>
       </c>
-      <c r="O248" t="b">
-        <v>0</v>
-      </c>
-      <c r="P248" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q248" t="b">
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+      <c r="Q248">
         <v>1</v>
       </c>
       <c r="R248" t="s">
@@ -17165,13 +17171,13 @@
       <c r="N249">
         <v>204</v>
       </c>
-      <c r="O249" t="b">
-        <v>0</v>
-      </c>
-      <c r="P249" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q249" t="b">
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+      <c r="Q249">
         <v>1</v>
       </c>
       <c r="R249" t="s">
@@ -17215,13 +17221,13 @@
       <c r="N250">
         <v>204</v>
       </c>
-      <c r="O250" t="b">
-        <v>0</v>
-      </c>
-      <c r="P250" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q250" t="b">
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+      <c r="Q250">
         <v>1</v>
       </c>
       <c r="R250" t="s">
@@ -17268,13 +17274,13 @@
       <c r="N251">
         <v>204</v>
       </c>
-      <c r="O251" t="b">
-        <v>0</v>
-      </c>
-      <c r="P251" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q251" t="b">
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+      <c r="Q251">
         <v>1</v>
       </c>
       <c r="R251" t="s">
@@ -17324,13 +17330,13 @@
       <c r="N252">
         <v>204</v>
       </c>
-      <c r="O252" t="b">
-        <v>0</v>
-      </c>
-      <c r="P252" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q252" t="b">
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+      <c r="Q252">
         <v>1</v>
       </c>
       <c r="R252" t="s">
@@ -17380,13 +17386,13 @@
       <c r="N253">
         <v>204</v>
       </c>
-      <c r="O253" t="b">
-        <v>0</v>
-      </c>
-      <c r="P253" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q253" t="b">
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
         <v>1</v>
       </c>
       <c r="R253" t="s">
@@ -17433,13 +17439,13 @@
       <c r="N254">
         <v>204</v>
       </c>
-      <c r="O254" t="b">
-        <v>0</v>
-      </c>
-      <c r="P254" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q254" t="b">
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+      <c r="Q254">
         <v>1</v>
       </c>
       <c r="R254" t="s">
@@ -17489,13 +17495,13 @@
       <c r="N255">
         <v>204</v>
       </c>
-      <c r="O255" t="b">
-        <v>0</v>
-      </c>
-      <c r="P255" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q255" t="b">
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+      <c r="Q255">
         <v>1</v>
       </c>
       <c r="R255" t="s">
@@ -17542,13 +17548,13 @@
       <c r="N256">
         <v>204</v>
       </c>
-      <c r="O256" t="b">
-        <v>0</v>
-      </c>
-      <c r="P256" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q256" t="b">
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+      <c r="Q256">
         <v>1</v>
       </c>
       <c r="R256" t="s">
@@ -17598,13 +17604,13 @@
       <c r="N257">
         <v>204</v>
       </c>
-      <c r="O257" t="b">
-        <v>0</v>
-      </c>
-      <c r="P257" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q257" t="b">
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+      <c r="Q257">
         <v>1</v>
       </c>
       <c r="R257" t="s">
@@ -17654,13 +17660,13 @@
       <c r="N258">
         <v>204</v>
       </c>
-      <c r="O258" t="b">
-        <v>0</v>
-      </c>
-      <c r="P258" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q258" t="b">
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+      <c r="Q258">
         <v>1</v>
       </c>
       <c r="R258" t="s">
@@ -17710,13 +17716,13 @@
       <c r="N259">
         <v>204</v>
       </c>
-      <c r="O259" t="b">
-        <v>0</v>
-      </c>
-      <c r="P259" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q259" t="b">
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+      <c r="Q259">
         <v>1</v>
       </c>
       <c r="R259" t="s">
@@ -17760,13 +17766,13 @@
       <c r="N260">
         <v>204</v>
       </c>
-      <c r="O260" t="b">
-        <v>0</v>
-      </c>
-      <c r="P260" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q260" t="b">
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+      <c r="Q260">
         <v>1</v>
       </c>
       <c r="R260" t="s">
@@ -17816,13 +17822,13 @@
       <c r="N261">
         <v>204</v>
       </c>
-      <c r="O261" t="b">
-        <v>0</v>
-      </c>
-      <c r="P261" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q261" t="b">
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+      <c r="Q261">
         <v>1</v>
       </c>
       <c r="R261" t="s">
@@ -17872,13 +17878,13 @@
       <c r="N262">
         <v>204</v>
       </c>
-      <c r="O262" t="b">
-        <v>0</v>
-      </c>
-      <c r="P262" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q262" t="b">
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+      <c r="Q262">
         <v>1</v>
       </c>
       <c r="R262" t="s">
@@ -17928,13 +17934,13 @@
       <c r="N263">
         <v>204</v>
       </c>
-      <c r="O263" t="b">
-        <v>0</v>
-      </c>
-      <c r="P263" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q263" t="b">
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+      <c r="Q263">
         <v>1</v>
       </c>
       <c r="R263" t="s">
@@ -17978,13 +17984,13 @@
       <c r="N264">
         <v>204</v>
       </c>
-      <c r="O264" t="b">
-        <v>0</v>
-      </c>
-      <c r="P264" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q264" t="b">
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+      <c r="Q264">
         <v>1</v>
       </c>
       <c r="R264" t="s">
@@ -18031,13 +18037,13 @@
       <c r="N265">
         <v>204</v>
       </c>
-      <c r="O265" t="b">
-        <v>0</v>
-      </c>
-      <c r="P265" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q265" t="b">
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+      <c r="Q265">
         <v>1</v>
       </c>
       <c r="R265" t="s">
@@ -18087,13 +18093,13 @@
       <c r="N266">
         <v>204</v>
       </c>
-      <c r="O266" t="b">
-        <v>0</v>
-      </c>
-      <c r="P266" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q266" t="b">
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+      <c r="Q266">
         <v>1</v>
       </c>
       <c r="R266" t="s">
@@ -18140,13 +18146,13 @@
       <c r="N267">
         <v>204</v>
       </c>
-      <c r="O267" t="b">
-        <v>0</v>
-      </c>
-      <c r="P267" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q267" t="b">
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+      <c r="Q267">
         <v>1</v>
       </c>
       <c r="R267" t="s">
@@ -18193,13 +18199,13 @@
       <c r="N268">
         <v>204</v>
       </c>
-      <c r="O268" t="b">
-        <v>0</v>
-      </c>
-      <c r="P268" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q268" t="b">
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+      <c r="Q268">
         <v>1</v>
       </c>
       <c r="R268" t="s">
@@ -18249,13 +18255,13 @@
       <c r="N269">
         <v>204</v>
       </c>
-      <c r="O269" t="b">
-        <v>0</v>
-      </c>
-      <c r="P269" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q269" t="b">
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+      <c r="Q269">
         <v>1</v>
       </c>
       <c r="R269" t="s">
@@ -18305,13 +18311,13 @@
       <c r="N270">
         <v>2292</v>
       </c>
-      <c r="O270" t="b">
-        <v>0</v>
-      </c>
-      <c r="P270" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q270" t="b">
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+      <c r="Q270">
         <v>1</v>
       </c>
       <c r="R270" t="s">
@@ -18358,13 +18364,13 @@
       <c r="N271">
         <v>2292</v>
       </c>
-      <c r="O271" t="b">
-        <v>0</v>
-      </c>
-      <c r="P271" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q271" t="b">
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+      <c r="Q271">
         <v>1</v>
       </c>
       <c r="R271" t="s">
@@ -18411,13 +18417,13 @@
       <c r="N272">
         <v>2292</v>
       </c>
-      <c r="O272" t="b">
-        <v>0</v>
-      </c>
-      <c r="P272" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q272" t="b">
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+      <c r="Q272">
         <v>1</v>
       </c>
       <c r="R272" t="s">
@@ -18464,13 +18470,13 @@
       <c r="N273">
         <v>2292</v>
       </c>
-      <c r="O273" t="b">
-        <v>0</v>
-      </c>
-      <c r="P273" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q273" t="b">
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+      <c r="Q273">
         <v>1</v>
       </c>
       <c r="R273" t="s">
@@ -18517,13 +18523,13 @@
       <c r="N274">
         <v>2292</v>
       </c>
-      <c r="O274" t="b">
-        <v>0</v>
-      </c>
-      <c r="P274" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q274" t="b">
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+      <c r="Q274">
         <v>1</v>
       </c>
       <c r="R274" t="s">
@@ -18570,13 +18576,13 @@
       <c r="N275">
         <v>2292</v>
       </c>
-      <c r="O275" t="b">
-        <v>0</v>
-      </c>
-      <c r="P275" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q275" t="b">
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+      <c r="Q275">
         <v>1</v>
       </c>
       <c r="R275" t="s">
@@ -18623,13 +18629,13 @@
       <c r="N276">
         <v>2292</v>
       </c>
-      <c r="O276" t="b">
-        <v>0</v>
-      </c>
-      <c r="P276" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q276" t="b">
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+      <c r="Q276">
         <v>1</v>
       </c>
       <c r="R276" t="s">
@@ -18679,13 +18685,13 @@
       <c r="N277">
         <v>2292</v>
       </c>
-      <c r="O277" t="b">
-        <v>0</v>
-      </c>
-      <c r="P277" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q277" t="b">
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+      <c r="Q277">
         <v>1</v>
       </c>
       <c r="R277" t="s">
@@ -18735,13 +18741,13 @@
       <c r="N278">
         <v>2292</v>
       </c>
-      <c r="O278" t="b">
-        <v>0</v>
-      </c>
-      <c r="P278" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q278" t="b">
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+      <c r="Q278">
         <v>1</v>
       </c>
       <c r="R278" t="s">
@@ -18788,13 +18794,13 @@
       <c r="N279">
         <v>2292</v>
       </c>
-      <c r="O279" t="b">
-        <v>0</v>
-      </c>
-      <c r="P279" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q279" t="b">
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+      <c r="Q279">
         <v>1</v>
       </c>
       <c r="R279" t="s">
@@ -18841,13 +18847,13 @@
       <c r="N280">
         <v>2292</v>
       </c>
-      <c r="O280" t="b">
-        <v>0</v>
-      </c>
-      <c r="P280" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q280" t="b">
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+      <c r="Q280">
         <v>1</v>
       </c>
       <c r="R280" t="s">
@@ -18894,13 +18900,13 @@
       <c r="N281">
         <v>2292</v>
       </c>
-      <c r="O281" t="b">
-        <v>0</v>
-      </c>
-      <c r="P281" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q281" t="b">
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+      <c r="Q281">
         <v>1</v>
       </c>
       <c r="R281" t="s">
@@ -18950,13 +18956,13 @@
       <c r="N282">
         <v>2292</v>
       </c>
-      <c r="O282" t="b">
-        <v>0</v>
-      </c>
-      <c r="P282" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q282" t="b">
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
+      <c r="Q282">
         <v>1</v>
       </c>
       <c r="R282" t="s">
@@ -19006,13 +19012,13 @@
       <c r="N283">
         <v>2292</v>
       </c>
-      <c r="O283" t="b">
-        <v>0</v>
-      </c>
-      <c r="P283" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q283" t="b">
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+      <c r="Q283">
         <v>1</v>
       </c>
       <c r="R283" t="s">
@@ -19062,13 +19068,13 @@
       <c r="N284">
         <v>2292</v>
       </c>
-      <c r="O284" t="b">
-        <v>0</v>
-      </c>
-      <c r="P284" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q284" t="b">
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+      <c r="Q284">
         <v>1</v>
       </c>
       <c r="R284" t="s">
@@ -19115,13 +19121,13 @@
       <c r="N285">
         <v>2292</v>
       </c>
-      <c r="O285" t="b">
-        <v>0</v>
-      </c>
-      <c r="P285" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q285" t="b">
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+      <c r="Q285">
         <v>1</v>
       </c>
       <c r="R285" t="s">
@@ -19171,13 +19177,13 @@
       <c r="N286">
         <v>2292</v>
       </c>
-      <c r="O286" t="b">
-        <v>0</v>
-      </c>
-      <c r="P286" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q286" t="b">
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+      <c r="Q286">
         <v>1</v>
       </c>
       <c r="R286" t="s">
@@ -19224,13 +19230,13 @@
       <c r="N287">
         <v>2292</v>
       </c>
-      <c r="O287" t="b">
-        <v>0</v>
-      </c>
-      <c r="P287" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q287" t="b">
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+      <c r="Q287">
         <v>1</v>
       </c>
       <c r="R287" t="s">
@@ -19280,13 +19286,13 @@
       <c r="N288">
         <v>2292</v>
       </c>
-      <c r="O288" t="b">
-        <v>0</v>
-      </c>
-      <c r="P288" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q288" t="b">
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>0</v>
+      </c>
+      <c r="Q288">
         <v>1</v>
       </c>
       <c r="R288" t="s">
@@ -19336,13 +19342,13 @@
       <c r="N289">
         <v>2292</v>
       </c>
-      <c r="O289" t="b">
-        <v>0</v>
-      </c>
-      <c r="P289" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q289" t="b">
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>0</v>
+      </c>
+      <c r="Q289">
         <v>1</v>
       </c>
       <c r="R289" t="s">
@@ -19392,13 +19398,13 @@
       <c r="N290">
         <v>2292</v>
       </c>
-      <c r="O290" t="b">
-        <v>0</v>
-      </c>
-      <c r="P290" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q290" t="b">
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+      <c r="Q290">
         <v>1</v>
       </c>
       <c r="R290" t="s">
@@ -19448,13 +19454,13 @@
       <c r="N291">
         <v>2292</v>
       </c>
-      <c r="O291" t="b">
-        <v>0</v>
-      </c>
-      <c r="P291" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q291" t="b">
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+      <c r="Q291">
         <v>1</v>
       </c>
       <c r="R291" t="s">
@@ -19504,13 +19510,13 @@
       <c r="N292">
         <v>2292</v>
       </c>
-      <c r="O292" t="b">
-        <v>0</v>
-      </c>
-      <c r="P292" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q292" t="b">
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+      <c r="Q292">
         <v>1</v>
       </c>
       <c r="R292" t="s">
@@ -19560,13 +19566,13 @@
       <c r="N293">
         <v>2292</v>
       </c>
-      <c r="O293" t="b">
-        <v>0</v>
-      </c>
-      <c r="P293" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q293" t="b">
+      <c r="O293">
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+      <c r="Q293">
         <v>1</v>
       </c>
       <c r="R293" t="s">
@@ -19613,13 +19619,13 @@
       <c r="N294">
         <v>2292</v>
       </c>
-      <c r="O294" t="b">
-        <v>0</v>
-      </c>
-      <c r="P294" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q294" t="b">
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+      <c r="Q294">
         <v>1</v>
       </c>
       <c r="R294" t="s">
@@ -19666,13 +19672,13 @@
       <c r="N295">
         <v>2292</v>
       </c>
-      <c r="O295" t="b">
-        <v>0</v>
-      </c>
-      <c r="P295" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q295" t="b">
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+      <c r="Q295">
         <v>1</v>
       </c>
       <c r="R295" t="s">
@@ -19722,13 +19728,13 @@
       <c r="N296">
         <v>2292</v>
       </c>
-      <c r="O296" t="b">
-        <v>0</v>
-      </c>
-      <c r="P296" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q296" t="b">
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+      <c r="Q296">
         <v>1</v>
       </c>
       <c r="R296" t="s">
@@ -19778,13 +19784,13 @@
       <c r="N297">
         <v>2292</v>
       </c>
-      <c r="O297" t="b">
-        <v>0</v>
-      </c>
-      <c r="P297" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q297" t="b">
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+      <c r="Q297">
         <v>1</v>
       </c>
       <c r="R297" t="s">
@@ -19831,13 +19837,13 @@
       <c r="N298">
         <v>2292</v>
       </c>
-      <c r="O298" t="b">
-        <v>0</v>
-      </c>
-      <c r="P298" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q298" t="b">
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+      <c r="Q298">
         <v>1</v>
       </c>
       <c r="R298" t="s">
@@ -19887,13 +19893,13 @@
       <c r="N299">
         <v>2292</v>
       </c>
-      <c r="O299" t="b">
-        <v>0</v>
-      </c>
-      <c r="P299" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q299" t="b">
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+      <c r="Q299">
         <v>1</v>
       </c>
       <c r="R299" t="s">
@@ -19901,7 +19907,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:R299" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>